--- a/TRACE_ITOG_EXCEL/Время.xlsx
+++ b/TRACE_ITOG_EXCEL/Время.xlsx
@@ -417,9 +417,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA1" sqref="Z1:AA1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z26" sqref="Z26:Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +609,7 @@
         <v>3.7625809523809665E-2</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" ref="U4:AC4" si="0">G4/$B4</f>
+        <f t="shared" ref="U4:AB4" si="0">G4/$B4</f>
         <v>22.68461380952381</v>
       </c>
       <c r="V4" s="1">
@@ -694,51 +694,51 @@
         <v>-26.965267999999924</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" ref="R5:R68" si="3">D5</f>
+        <f t="shared" ref="R5:R65" si="3">D5</f>
         <v>58.304399999999532</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" ref="S5:S68" si="4">E5</f>
+        <f t="shared" ref="S5:S65" si="4">E5</f>
         <v>0.13834600000018327</v>
       </c>
       <c r="T5" s="1">
-        <f t="shared" ref="T5:T68" si="5">F5/$B5</f>
+        <f t="shared" ref="T5:T65" si="5">F5/$B5</f>
         <v>3.4550357142858867E-2</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" ref="U5:U68" si="6">G5/$B5</f>
+        <f t="shared" ref="U5:U65" si="6">G5/$B5</f>
         <v>20.735429523809522</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" ref="V5:V68" si="7">H5/$B5</f>
+        <f t="shared" ref="V5:V65" si="7">H5/$B5</f>
         <v>1.5551040952380955</v>
       </c>
       <c r="W5" s="1">
-        <f t="shared" ref="W5:W68" si="8">I5/$B5</f>
+        <f t="shared" ref="W5:W65" si="8">I5/$B5</f>
         <v>0.73048495238095246</v>
       </c>
       <c r="X5" s="1">
-        <f t="shared" ref="X5:X68" si="9">J5/$B5</f>
+        <f t="shared" ref="X5:X65" si="9">J5/$B5</f>
         <v>0.76544069047619046</v>
       </c>
       <c r="Y5" s="1">
-        <f t="shared" ref="Y5:Y68" si="10">K5/$B5</f>
+        <f t="shared" ref="Y5:Y65" si="10">K5/$B5</f>
         <v>1.1671705238095238</v>
       </c>
       <c r="Z5" s="1">
-        <f t="shared" ref="Z5:Z68" si="11">L5/$B5</f>
+        <f t="shared" ref="Z5:Z65" si="11">L5/$B5</f>
         <v>3.1083841666666663</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" ref="AA5:AA68" si="12">M5/$B5</f>
+        <f t="shared" ref="AA5:AA65" si="12">M5/$B5</f>
         <v>17.306030261904759</v>
       </c>
       <c r="AB5" s="1">
-        <f t="shared" ref="AB5:AB68" si="13">N5/$B5</f>
+        <f t="shared" ref="AB5:AB65" si="13">N5/$B5</f>
         <v>20.414414428571426</v>
       </c>
       <c r="AC5" s="1">
-        <f t="shared" ref="AC5:AC68" si="14">O5</f>
+        <f t="shared" ref="AC5:AC65" si="14">O5</f>
         <v>-26.965267999999924</v>
       </c>
     </row>
@@ -3000,7 +3000,7 @@
         <v>-16.107443999999987</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" si="3"/>
+        <f>D37</f>
         <v>51.11320000000012</v>
       </c>
       <c r="S37" s="1">
@@ -3008,11 +3008,11 @@
         <v>4.2193999999881271E-2</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="5"/>
+        <f>F37/$B37</f>
         <v>1.4075857142856984E-2</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="6"/>
+        <f>G37/$B37</f>
         <v>10.941323095238095</v>
       </c>
       <c r="V37" s="1">
@@ -3024,11 +3024,11 @@
         <v>0.62095978571428567</v>
       </c>
       <c r="X37" s="1">
-        <f t="shared" si="9"/>
+        <f>J37/$B37</f>
         <v>0.42827483333333333</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" si="10"/>
+        <f>K37/$B37</f>
         <v>1.0518328809523809</v>
       </c>
       <c r="Z37" s="1">
@@ -3089,11 +3089,11 @@
         <v>659.77130099999999</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" ref="N38:N43" si="19">L38+M38</f>
+        <f>L38+M38</f>
         <v>814.86228499999993</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" ref="O38:O43" si="20">N38-G38</f>
+        <f>N38-G38</f>
         <v>-16.120709000000033</v>
       </c>
       <c r="R38" s="1">
@@ -3186,11 +3186,11 @@
         <v>1316.7995309999999</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="N38:N43" si="19">L39+M39</f>
         <v>1527.2132809999998</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="O38:O43" si="20">N39-G39</f>
         <v>-16.668453000000227</v>
       </c>
       <c r="R39" s="1">
@@ -5403,51 +5403,51 @@
         <v>-377.68318499999987</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" ref="R69:R76" si="25">D70</f>
+        <f t="shared" ref="R70:R76" si="25">D70</f>
         <v>117.4887755102036</v>
       </c>
       <c r="S70" s="1">
-        <f t="shared" ref="S69:S76" si="26">E70</f>
+        <f t="shared" ref="S70:S76" si="26">E70</f>
         <v>-12.189003775510173</v>
       </c>
       <c r="T70" s="1">
-        <f t="shared" ref="T69:T76" si="27">F70/$B70</f>
+        <f t="shared" ref="T70:T76" si="27">F70/$B70</f>
         <v>4.665178571428355E-2</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" ref="U69:U76" si="28">G70/$B70</f>
+        <f t="shared" ref="U70:U76" si="28">G70/$B70</f>
         <v>82.820055309523809</v>
       </c>
       <c r="V70" s="1">
-        <f t="shared" ref="V69:V76" si="29">H70/$B70</f>
+        <f t="shared" ref="V70:V76" si="29">H70/$B70</f>
         <v>1.8683420714285712</v>
       </c>
       <c r="W70" s="1">
-        <f t="shared" ref="W69:W76" si="30">I70/$B70</f>
+        <f t="shared" ref="W70:W76" si="30">I70/$B70</f>
         <v>5.4418143333333333</v>
       </c>
       <c r="X70" s="1">
-        <f t="shared" ref="X69:X76" si="31">J70/$B70</f>
+        <f t="shared" ref="X70:X76" si="31">J70/$B70</f>
         <v>5.1655962142857144</v>
       </c>
       <c r="Y70" s="1">
-        <f t="shared" ref="Y69:Y76" si="32">K70/$B70</f>
+        <f t="shared" ref="Y70:Y76" si="32">K70/$B70</f>
         <v>6.0214826190476192</v>
       </c>
       <c r="Z70" s="1">
-        <f t="shared" ref="Z69:Z76" si="33">L70/$B70</f>
+        <f t="shared" ref="Z70:Z76" si="33">L70/$B70</f>
         <v>30.106076714285717</v>
       </c>
       <c r="AA70" s="1">
-        <f t="shared" ref="AA69:AA76" si="34">M70/$B70</f>
+        <f t="shared" ref="AA70:AA76" si="34">M70/$B70</f>
         <v>43.721521809523814</v>
       </c>
       <c r="AB70" s="1">
-        <f t="shared" ref="AB69:AB76" si="35">N70/$B70</f>
+        <f t="shared" ref="AB70:AB76" si="35">N70/$B70</f>
         <v>73.827598523809527</v>
       </c>
       <c r="AC70" s="1">
-        <f t="shared" ref="AC69:AC76" si="36">O70</f>
+        <f t="shared" ref="AC70:AC76" si="36">O70</f>
         <v>-377.68318499999987</v>
       </c>
     </row>
